--- a/config_p3388/light_rfi.xlsx
+++ b/config_p3388/light_rfi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\meas\p3388_general_rfi_tv\config_p3388\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB0105E-C69F-46AC-9A9A-E639FB38AB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2BB99E-A45C-4076-BBA8-0FF3E5443BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21495" yWindow="-14460" windowWidth="21330" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1875" windowWidth="17085" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -153,18 +153,6 @@
   </si>
   <si>
     <t>J6</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -570,11 +558,11 @@
         <v>0.999</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E47" si="0">1-D2</f>
+        <f t="shared" ref="E2:E3" si="0">1-D2</f>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F47" si="1">1-G2</f>
+        <f t="shared" ref="F2:F3" si="1">1-G2</f>
         <v>3.5000000000000031E-2</v>
       </c>
       <c r="G2" s="2">
@@ -614,7 +602,7 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>546</v>
+        <v>637</v>
       </c>
       <c r="D3" s="2">
         <v>0.98</v>
@@ -635,22 +623,22 @@
       </c>
       <c r="I3" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">RAND()*3</f>
-        <v>1.1977465581311941</v>
+        <v>0.11979188272555485</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.83744064718765343</v>
+        <v>1.7139869051306096</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -668,7 +656,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C22" ca="1" si="2">RANDBETWEEN(1,1024)</f>
-        <v>604</v>
+        <v>999</v>
       </c>
       <c r="D4" s="2">
         <f>D3</f>
@@ -691,22 +679,22 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I22" ca="1" si="5">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ref="J4:J22" ca="1" si="6">RAND()*3</f>
-        <v>1.9647798379576971</v>
+        <v>2.3568520380525357</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L22" ca="1" si="7">RANDBETWEEN(-10,10)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M22" ca="1" si="8">RAND()*3</f>
-        <v>0.4375942914296127</v>
+        <v>2.8212853351061642</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -724,7 +712,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>935</v>
+        <v>801</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D12" si="9">D4</f>
@@ -747,22 +735,22 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9968021444687869</v>
+        <v>2.0282788480858609</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.93477867347640353</v>
+        <v>1.1956602731841719</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -780,7 +768,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>654</v>
+        <v>718</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="9"/>
@@ -803,22 +791,22 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.519042611738066</v>
+        <v>2.1160248116657208</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44856600014919046</v>
+        <v>1.6066403665520106</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -836,7 +824,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>807</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="9"/>
@@ -859,22 +847,22 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2223212665266199</v>
+        <v>0.92789281523466838</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2907619831726778</v>
+        <v>0.86627715134077887</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -892,7 +880,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="9"/>
@@ -915,22 +903,22 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69281920973460598</v>
+        <v>1.8308557760995192</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96959818981959289</v>
+        <v>1.1934219485420132</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -948,7 +936,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="9"/>
@@ -971,22 +959,22 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86047621716836076</v>
+        <v>1.0727141843130099</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0688250963495427</v>
+        <v>0.97793755009737837</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -1004,7 +992,7 @@
       </c>
       <c r="C10" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>813</v>
+        <v>263</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="9"/>
@@ -1027,22 +1015,22 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0592492316499138</v>
+        <v>2.079034291903894</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4955422480360832</v>
+        <v>1.1607628232510321</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1060,7 +1048,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="9"/>
@@ -1083,22 +1071,22 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2343329662411699</v>
+        <v>0.27725979490900632</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9396498791901315E-2</v>
+        <v>1.8465086198987959</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1116,7 +1104,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>800</v>
+        <v>927</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="9"/>
@@ -1143,18 +1131,18 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.25002296275159</v>
+        <v>2.4559447739445543</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2942116495277673</v>
+        <v>1.3176245903793791</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1172,7 +1160,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>760</v>
+        <v>375</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:D20" si="11">D12</f>
@@ -1195,22 +1183,22 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7485868415077932</v>
+        <v>2.050678488751994</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6704147471967463</v>
+        <v>0.1686755449222862</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -1228,7 +1216,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="11"/>
@@ -1251,22 +1239,22 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.003084980796767</v>
+        <v>0.59503552908012336</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9913390417232089</v>
+        <v>0.41503470391731911</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -1284,7 +1272,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="11"/>
@@ -1307,22 +1295,22 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9741260928029751</v>
+        <v>2.2613727819733276</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18143704912125558</v>
+        <v>0.17403754050683928</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1340,7 +1328,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>277</v>
+        <v>386</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="11"/>
@@ -1363,22 +1351,22 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54735701030549611</v>
+        <v>2.7332912807494782</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.908617724647816</v>
+        <v>1.2525725365433937</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -1396,7 +1384,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="11"/>
@@ -1419,22 +1407,22 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41042247838820523</v>
+        <v>0.54680828023048234</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3666372643885296</v>
+        <v>0.16912197174438659</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -1452,7 +1440,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>509</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="11"/>
@@ -1475,22 +1463,22 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65883952222763531</v>
+        <v>6.710083063274519E-2</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1154831327805534</v>
+        <v>0.76237488803211484</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1508,7 +1496,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>346</v>
+        <v>906</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="11"/>
@@ -1535,18 +1523,18 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6695323951202596</v>
+        <v>1.0806572823584339</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20665911751979271</v>
+        <v>0.41961322439590809</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -1564,7 +1552,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>462</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="11"/>
@@ -1587,22 +1575,22 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9252637817763782</v>
+        <v>2.3320760356889751</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1733718861473168</v>
+        <v>8.4786707377429993E-2</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1620,7 +1608,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1022</v>
+        <v>419</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ref="D21:D22" si="15">D20</f>
@@ -1643,22 +1631,22 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1195571977643293</v>
+        <v>1.8106399580394283E-2</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5073473454352113</v>
+        <v>0.30154290229979586</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -1676,7 +1664,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="15"/>
@@ -1699,22 +1687,22 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17179212074895378</v>
+        <v>1.8163082542868425</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71212929961779847</v>
+        <v>0.98295176738989143</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
